--- a/Data_Raw/review_561049_20250506232627.xlsx
+++ b/Data_Raw/review_561049_20250506232627.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiregnaOlaniKedida\Documents\github\AI-medical-imaging\Data_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CADC58A-DCCD-4046-9394-BDF4874DFEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DECDFEA-E041-486C-98D1-2F9FD40AF295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{767F5A16-8C7F-4025-A202-E78522AAD18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{767F5A16-8C7F-4025-A202-E78522AAD18F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$U$1:$V$81</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1811,9 +1814,6 @@
   </si>
   <si>
     <t>The primary outcome is the pooled sensitivity and specificity of AI compared to radiologists in diagnosing thyroid nodules.</t>
-  </si>
-  <si>
-    <t>AI (Radiologist)</t>
   </si>
   <si>
     <t>CNN, DCNN, ANN, SVM, RF</t>
@@ -3840,12 +3840,6 @@
     <t>CNN, DCNN, U-net, InceptionV3, Resnet34, Resnet101, EfficientNet-B3, MVITV2</t>
   </si>
   <si>
-    <t>Subgroup 1</t>
-  </si>
-  <si>
-    <t>Subgroup 2</t>
-  </si>
-  <si>
     <t>Deek's test: 0.20 (no publication bias)</t>
   </si>
   <si>
@@ -3887,6 +3881,15 @@
   </si>
   <si>
     <t>No significant publication bias (Egger's intercept 1.11, 95%CI ��� 1.22 to 3.42, p = 0.313)</t>
+  </si>
+  <si>
+    <t>I² (%) Subgroup 1</t>
+  </si>
+  <si>
+    <t>I² (%) Subgroup 2</t>
+  </si>
+  <si>
+    <t>Radiologist</t>
   </si>
 </sst>
 </file>
@@ -4243,13 +4246,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731CE1D-D899-4C26-8862-E5DCEA1752A5}">
   <dimension ref="A1:BD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="34.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
   </cols>
@@ -4376,10 +4383,10 @@
         <v>37</v>
       </c>
       <c r="AO1" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="AP1" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
       <c r="AQ1" t="s">
         <v>38</v>
@@ -4724,10 +4731,10 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="AS4" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="AT4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
@@ -4944,10 +4951,10 @@
         <v>89.5</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AR6" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
@@ -5336,10 +5343,10 @@
         <v>5251</v>
       </c>
       <c r="U10" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="V10" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="W10" t="s">
         <v>176</v>
@@ -5999,7 +6006,7 @@
         <v>957</v>
       </c>
       <c r="Q16" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="R16">
         <v>48</v>
@@ -6127,10 +6134,10 @@
         <v>248</v>
       </c>
       <c r="U17" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="V17" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="W17" t="s">
         <v>256</v>
@@ -6573,10 +6580,10 @@
         <v>65</v>
       </c>
       <c r="W21" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="X21" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="Y21">
         <v>85</v>
@@ -7173,7 +7180,7 @@
         <v>378</v>
       </c>
       <c r="I27" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J27" t="s">
         <v>379</v>
@@ -8281,16 +8288,16 @@
         <v>3</v>
       </c>
       <c r="U38" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="V38" t="s">
+        <v>1051</v>
+      </c>
+      <c r="W38" t="s">
         <v>511</v>
       </c>
-      <c r="W38" t="s">
-        <v>512</v>
-      </c>
       <c r="X38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Y38">
         <v>86</v>
@@ -8329,10 +8336,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AS38" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AT38" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AW38">
         <v>621.66999999999996</v>
@@ -8346,31 +8353,31 @@
         <v>799</v>
       </c>
       <c r="B39" t="s">
+        <v>512</v>
+      </c>
+      <c r="C39" t="s">
         <v>513</v>
-      </c>
-      <c r="C39" t="s">
-        <v>514</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" t="s">
+        <v>514</v>
+      </c>
+      <c r="F39" t="s">
+        <v>513</v>
+      </c>
+      <c r="G39" t="s">
         <v>515</v>
-      </c>
-      <c r="F39" t="s">
-        <v>514</v>
-      </c>
-      <c r="G39" t="s">
-        <v>516</v>
       </c>
       <c r="H39" t="s">
         <v>72</v>
       </c>
       <c r="I39" t="s">
+        <v>516</v>
+      </c>
+      <c r="J39" t="s">
         <v>517</v>
-      </c>
-      <c r="J39" t="s">
-        <v>518</v>
       </c>
       <c r="K39" t="s">
         <v>75</v>
@@ -8379,19 +8386,19 @@
         <v>76</v>
       </c>
       <c r="M39" t="s">
+        <v>518</v>
+      </c>
+      <c r="N39" t="s">
         <v>519</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>520</v>
-      </c>
-      <c r="O39" t="s">
-        <v>521</v>
       </c>
       <c r="P39">
         <v>2389</v>
       </c>
       <c r="Q39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R39">
         <v>224</v>
@@ -8400,13 +8407,13 @@
         <v>84</v>
       </c>
       <c r="U39" t="s">
+        <v>522</v>
+      </c>
+      <c r="V39" t="s">
         <v>523</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>524</v>
-      </c>
-      <c r="W39" t="s">
-        <v>525</v>
       </c>
       <c r="Y39">
         <v>98</v>
@@ -8441,28 +8448,28 @@
         <v>790</v>
       </c>
       <c r="B40" t="s">
+        <v>525</v>
+      </c>
+      <c r="C40" t="s">
         <v>526</v>
-      </c>
-      <c r="C40" t="s">
-        <v>527</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" t="s">
+        <v>527</v>
+      </c>
+      <c r="F40" t="s">
         <v>528</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>529</v>
-      </c>
-      <c r="G40" t="s">
-        <v>530</v>
       </c>
       <c r="H40" t="s">
         <v>72</v>
       </c>
       <c r="I40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J40" t="s">
         <v>74</v>
@@ -8474,19 +8481,19 @@
         <v>76</v>
       </c>
       <c r="M40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N40" t="e">
         <v>#NAME?</v>
       </c>
       <c r="O40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P40">
         <v>2897</v>
       </c>
       <c r="Q40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R40">
         <v>189</v>
@@ -8501,10 +8508,10 @@
         <v>65</v>
       </c>
       <c r="W40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y40">
         <v>83</v>
@@ -8537,10 +8544,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="AS40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AT40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AY40">
         <v>90</v>
@@ -8554,22 +8561,22 @@
         <v>778</v>
       </c>
       <c r="B41" t="s">
+        <v>536</v>
+      </c>
+      <c r="C41" t="s">
         <v>537</v>
-      </c>
-      <c r="C41" t="s">
-        <v>538</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
       </c>
       <c r="E41" t="s">
+        <v>538</v>
+      </c>
+      <c r="F41" t="s">
         <v>539</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>540</v>
-      </c>
-      <c r="G41" t="s">
-        <v>541</v>
       </c>
       <c r="H41" t="s">
         <v>72</v>
@@ -8578,7 +8585,7 @@
         <v>125</v>
       </c>
       <c r="J41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K41" t="s">
         <v>103</v>
@@ -8587,16 +8594,16 @@
         <v>76</v>
       </c>
       <c r="N41" t="s">
+        <v>542</v>
+      </c>
+      <c r="O41" t="s">
         <v>543</v>
-      </c>
-      <c r="O41" t="s">
-        <v>544</v>
       </c>
       <c r="P41">
         <v>54</v>
       </c>
       <c r="Q41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R41">
         <v>4</v>
@@ -8614,10 +8621,10 @@
         <v>65</v>
       </c>
       <c r="W41" t="s">
+        <v>545</v>
+      </c>
+      <c r="X41" t="s">
         <v>546</v>
-      </c>
-      <c r="X41" t="s">
-        <v>547</v>
       </c>
       <c r="Y41">
         <v>93.9</v>
@@ -8674,10 +8681,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="AY41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AZ41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
@@ -8685,49 +8692,49 @@
         <v>770</v>
       </c>
       <c r="B42" t="s">
+        <v>548</v>
+      </c>
+      <c r="C42" t="s">
         <v>549</v>
-      </c>
-      <c r="C42" t="s">
-        <v>550</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="E42" t="s">
+        <v>550</v>
+      </c>
+      <c r="F42" t="s">
         <v>551</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>552</v>
-      </c>
-      <c r="G42" t="s">
-        <v>553</v>
       </c>
       <c r="H42" t="s">
         <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J42" t="s">
         <v>90</v>
       </c>
       <c r="K42" t="s">
+        <v>554</v>
+      </c>
+      <c r="L42" t="s">
         <v>555</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>556</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>557</v>
-      </c>
-      <c r="N42" t="s">
-        <v>558</v>
       </c>
       <c r="P42">
         <v>251</v>
       </c>
       <c r="Q42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R42">
         <v>29</v>
@@ -8742,7 +8749,7 @@
         <v>65</v>
       </c>
       <c r="W42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Y42">
         <v>84</v>
@@ -8780,49 +8787,49 @@
         <v>746</v>
       </c>
       <c r="B43" t="s">
+        <v>560</v>
+      </c>
+      <c r="C43" t="s">
         <v>561</v>
-      </c>
-      <c r="C43" t="s">
-        <v>562</v>
       </c>
       <c r="D43" t="s">
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H43" t="s">
         <v>72</v>
       </c>
       <c r="I43" t="s">
+        <v>563</v>
+      </c>
+      <c r="J43" t="s">
         <v>564</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>565</v>
-      </c>
-      <c r="K43" t="s">
-        <v>566</v>
       </c>
       <c r="L43" t="s">
         <v>481</v>
       </c>
       <c r="M43" t="s">
+        <v>566</v>
+      </c>
+      <c r="N43" t="s">
         <v>567</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>568</v>
-      </c>
-      <c r="O43" t="s">
-        <v>569</v>
       </c>
       <c r="P43">
         <v>1212</v>
       </c>
       <c r="Q43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R43">
         <v>34</v>
@@ -8837,10 +8844,10 @@
         <v>65</v>
       </c>
       <c r="W43" t="s">
+        <v>570</v>
+      </c>
+      <c r="X43" t="s">
         <v>571</v>
-      </c>
-      <c r="X43" t="s">
-        <v>572</v>
       </c>
       <c r="Y43">
         <v>89</v>
@@ -8881,28 +8888,28 @@
         <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
       </c>
       <c r="E44" t="s">
+        <v>573</v>
+      </c>
+      <c r="F44" t="s">
         <v>574</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>575</v>
-      </c>
-      <c r="G44" t="s">
-        <v>576</v>
       </c>
       <c r="H44" t="s">
         <v>72</v>
       </c>
       <c r="I44" t="s">
+        <v>576</v>
+      </c>
+      <c r="J44" t="s">
         <v>577</v>
-      </c>
-      <c r="J44" t="s">
-        <v>578</v>
       </c>
       <c r="K44" t="s">
         <v>58</v>
@@ -8911,19 +8918,19 @@
         <v>76</v>
       </c>
       <c r="M44" t="s">
+        <v>578</v>
+      </c>
+      <c r="N44" t="s">
         <v>579</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>580</v>
-      </c>
-      <c r="O44" t="s">
-        <v>581</v>
       </c>
       <c r="P44">
         <v>5777</v>
       </c>
       <c r="Q44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R44">
         <v>1405</v>
@@ -8941,10 +8948,10 @@
         <v>81</v>
       </c>
       <c r="W44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Y44">
         <v>91.4</v>
@@ -8982,52 +8989,52 @@
         <v>724</v>
       </c>
       <c r="B45" t="s">
+        <v>583</v>
+      </c>
+      <c r="C45" t="s">
         <v>584</v>
-      </c>
-      <c r="C45" t="s">
-        <v>585</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
       </c>
       <c r="E45" t="s">
+        <v>585</v>
+      </c>
+      <c r="F45" t="s">
+        <v>584</v>
+      </c>
+      <c r="G45" t="s">
         <v>586</v>
-      </c>
-      <c r="F45" t="s">
-        <v>585</v>
-      </c>
-      <c r="G45" t="s">
-        <v>587</v>
       </c>
       <c r="H45" t="s">
         <v>72</v>
       </c>
       <c r="I45" t="s">
+        <v>587</v>
+      </c>
+      <c r="J45" t="s">
         <v>588</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>589</v>
-      </c>
-      <c r="K45" t="s">
-        <v>590</v>
       </c>
       <c r="L45" t="s">
         <v>143</v>
       </c>
       <c r="M45" t="s">
+        <v>590</v>
+      </c>
+      <c r="N45" t="s">
         <v>591</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>592</v>
-      </c>
-      <c r="O45" t="s">
-        <v>593</v>
       </c>
       <c r="P45">
         <v>1893</v>
       </c>
       <c r="Q45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R45">
         <v>14</v>
@@ -9036,16 +9043,16 @@
         <v>14</v>
       </c>
       <c r="U45" t="s">
+        <v>594</v>
+      </c>
+      <c r="V45" t="s">
         <v>595</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>596</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>597</v>
-      </c>
-      <c r="X45" t="s">
-        <v>598</v>
       </c>
       <c r="Y45">
         <v>87</v>
@@ -9089,49 +9096,49 @@
         <v>684</v>
       </c>
       <c r="B46" t="s">
+        <v>598</v>
+      </c>
+      <c r="C46" t="s">
         <v>599</v>
-      </c>
-      <c r="C46" t="s">
-        <v>600</v>
       </c>
       <c r="D46" t="s">
         <v>54</v>
       </c>
       <c r="E46" t="s">
+        <v>600</v>
+      </c>
+      <c r="F46" t="s">
         <v>601</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>602</v>
-      </c>
-      <c r="G46" t="s">
-        <v>603</v>
       </c>
       <c r="H46" t="s">
         <v>72</v>
       </c>
       <c r="J46" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K46" t="s">
         <v>142</v>
       </c>
       <c r="L46" t="s">
+        <v>604</v>
+      </c>
+      <c r="M46" t="s">
         <v>605</v>
-      </c>
-      <c r="M46" t="s">
-        <v>606</v>
       </c>
       <c r="N46" t="e">
         <v>#NAME?</v>
       </c>
       <c r="O46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P46">
         <v>4397</v>
       </c>
       <c r="Q46" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R46">
         <v>206</v>
@@ -9149,10 +9156,10 @@
         <v>65</v>
       </c>
       <c r="W46" t="s">
+        <v>608</v>
+      </c>
+      <c r="X46" t="s">
         <v>609</v>
-      </c>
-      <c r="X46" t="s">
-        <v>610</v>
       </c>
       <c r="Y46">
         <v>95.2</v>
@@ -9172,31 +9179,31 @@
         <v>667</v>
       </c>
       <c r="B47" t="s">
+        <v>610</v>
+      </c>
+      <c r="C47" t="s">
         <v>611</v>
-      </c>
-      <c r="C47" t="s">
-        <v>612</v>
       </c>
       <c r="D47" t="s">
         <v>54</v>
       </c>
       <c r="E47" t="s">
+        <v>612</v>
+      </c>
+      <c r="F47" t="s">
         <v>613</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>614</v>
-      </c>
-      <c r="G47" t="s">
-        <v>615</v>
       </c>
       <c r="H47" t="s">
         <v>72</v>
       </c>
       <c r="I47" t="s">
+        <v>615</v>
+      </c>
+      <c r="J47" t="s">
         <v>616</v>
-      </c>
-      <c r="J47" t="s">
-        <v>617</v>
       </c>
       <c r="K47" t="s">
         <v>75</v>
@@ -9205,19 +9212,19 @@
         <v>76</v>
       </c>
       <c r="M47" t="s">
+        <v>617</v>
+      </c>
+      <c r="N47" t="s">
         <v>618</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>619</v>
-      </c>
-      <c r="O47" t="s">
-        <v>620</v>
       </c>
       <c r="P47">
         <v>401</v>
       </c>
       <c r="Q47" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R47">
         <v>25</v>
@@ -9235,10 +9242,10 @@
         <v>65</v>
       </c>
       <c r="W47" t="s">
+        <v>621</v>
+      </c>
+      <c r="X47" t="s">
         <v>622</v>
-      </c>
-      <c r="X47" t="s">
-        <v>623</v>
       </c>
       <c r="Y47">
         <v>89</v>
@@ -9253,16 +9260,16 @@
         <v>83</v>
       </c>
       <c r="AQ47" t="s">
+        <v>623</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>623</v>
+      </c>
+      <c r="AS47" t="s">
         <v>624</v>
       </c>
-      <c r="AR47" t="s">
+      <c r="AT47" t="s">
         <v>624</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>625</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>625</v>
       </c>
       <c r="AW47">
         <v>83.18</v>
@@ -9276,52 +9283,52 @@
         <v>599</v>
       </c>
       <c r="B48" t="s">
+        <v>625</v>
+      </c>
+      <c r="C48" t="s">
         <v>626</v>
-      </c>
-      <c r="C48" t="s">
-        <v>627</v>
       </c>
       <c r="D48" t="s">
         <v>54</v>
       </c>
       <c r="E48" t="s">
+        <v>627</v>
+      </c>
+      <c r="F48" t="s">
+        <v>626</v>
+      </c>
+      <c r="G48" t="s">
         <v>628</v>
-      </c>
-      <c r="F48" t="s">
-        <v>627</v>
-      </c>
-      <c r="G48" t="s">
-        <v>629</v>
       </c>
       <c r="H48" t="s">
         <v>72</v>
       </c>
       <c r="I48" t="s">
+        <v>629</v>
+      </c>
+      <c r="J48" t="s">
         <v>630</v>
-      </c>
-      <c r="J48" t="s">
-        <v>631</v>
       </c>
       <c r="K48" t="s">
         <v>58</v>
       </c>
       <c r="L48" t="s">
+        <v>631</v>
+      </c>
+      <c r="M48" t="s">
         <v>632</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>633</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>634</v>
-      </c>
-      <c r="O48" t="s">
-        <v>635</v>
       </c>
       <c r="P48">
         <v>395</v>
       </c>
       <c r="Q48" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R48">
         <v>16</v>
@@ -9333,7 +9340,7 @@
         <v>497091</v>
       </c>
       <c r="U48" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V48" t="s">
         <v>65</v>
@@ -9374,46 +9381,46 @@
         <v>596</v>
       </c>
       <c r="B49" t="s">
+        <v>637</v>
+      </c>
+      <c r="C49" t="s">
         <v>638</v>
-      </c>
-      <c r="C49" t="s">
-        <v>639</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
+        <v>639</v>
+      </c>
+      <c r="F49" t="s">
         <v>640</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>641</v>
-      </c>
-      <c r="G49" t="s">
-        <v>642</v>
       </c>
       <c r="H49" t="s">
         <v>72</v>
       </c>
       <c r="K49" t="s">
+        <v>642</v>
+      </c>
+      <c r="L49" t="s">
         <v>643</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>644</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>645</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>646</v>
-      </c>
-      <c r="O49" t="s">
-        <v>647</v>
       </c>
       <c r="P49">
         <v>441</v>
       </c>
       <c r="Q49" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R49">
         <v>50</v>
@@ -9425,16 +9432,16 @@
         <v>473</v>
       </c>
       <c r="U49" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="V49" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s">
+        <v>648</v>
+      </c>
+      <c r="X49" t="s">
         <v>649</v>
-      </c>
-      <c r="X49" t="s">
-        <v>650</v>
       </c>
       <c r="Y49">
         <v>86.5</v>
@@ -9466,52 +9473,52 @@
         <v>562</v>
       </c>
       <c r="B50" t="s">
+        <v>650</v>
+      </c>
+      <c r="C50" t="s">
         <v>651</v>
-      </c>
-      <c r="C50" t="s">
-        <v>652</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
       </c>
       <c r="E50" t="s">
+        <v>652</v>
+      </c>
+      <c r="F50" t="s">
+        <v>651</v>
+      </c>
+      <c r="G50" t="s">
         <v>653</v>
-      </c>
-      <c r="F50" t="s">
-        <v>652</v>
-      </c>
-      <c r="G50" t="s">
-        <v>654</v>
       </c>
       <c r="H50" t="s">
         <v>72</v>
       </c>
       <c r="I50" t="s">
+        <v>654</v>
+      </c>
+      <c r="J50" t="s">
         <v>655</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
+        <v>642</v>
+      </c>
+      <c r="L50" t="s">
         <v>656</v>
       </c>
-      <c r="K50" t="s">
-        <v>643</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>657</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>658</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>659</v>
-      </c>
-      <c r="O50" t="s">
-        <v>660</v>
       </c>
       <c r="P50">
         <v>796</v>
       </c>
       <c r="Q50" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R50">
         <v>46</v>
@@ -9520,7 +9527,7 @@
         <v>24</v>
       </c>
       <c r="U50" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y50">
         <v>83</v>
@@ -9558,28 +9565,28 @@
         <v>510</v>
       </c>
       <c r="B51" t="s">
+        <v>662</v>
+      </c>
+      <c r="C51" t="s">
         <v>663</v>
-      </c>
-      <c r="C51" t="s">
-        <v>664</v>
       </c>
       <c r="D51" t="s">
         <v>54</v>
       </c>
       <c r="E51" t="s">
+        <v>664</v>
+      </c>
+      <c r="F51" t="s">
         <v>665</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>666</v>
-      </c>
-      <c r="G51" t="s">
-        <v>667</v>
       </c>
       <c r="H51" t="s">
         <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K51" t="s">
         <v>262</v>
@@ -9588,16 +9595,16 @@
         <v>76</v>
       </c>
       <c r="M51" t="s">
+        <v>668</v>
+      </c>
+      <c r="O51" t="s">
         <v>669</v>
-      </c>
-      <c r="O51" t="s">
-        <v>670</v>
       </c>
       <c r="P51">
         <v>12470</v>
       </c>
       <c r="Q51" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R51">
         <v>85</v>
@@ -9606,10 +9613,10 @@
         <v>85</v>
       </c>
       <c r="U51" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V51" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="W51" t="s">
         <v>97</v>
@@ -9677,43 +9684,43 @@
         <v>497</v>
       </c>
       <c r="B52" t="s">
+        <v>672</v>
+      </c>
+      <c r="C52" t="s">
         <v>673</v>
-      </c>
-      <c r="C52" t="s">
-        <v>674</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
       </c>
       <c r="E52" t="s">
+        <v>674</v>
+      </c>
+      <c r="F52" t="s">
         <v>675</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>676</v>
-      </c>
-      <c r="G52" t="s">
-        <v>677</v>
       </c>
       <c r="H52" t="s">
         <v>72</v>
       </c>
       <c r="I52" t="s">
+        <v>677</v>
+      </c>
+      <c r="J52" t="s">
         <v>678</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>679</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
+        <v>604</v>
+      </c>
+      <c r="M52" t="s">
         <v>680</v>
       </c>
-      <c r="L52" t="s">
-        <v>605</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>681</v>
-      </c>
-      <c r="N52" t="s">
-        <v>682</v>
       </c>
       <c r="O52" t="e">
         <v>#NAME?</v>
@@ -9722,7 +9729,7 @@
         <v>1967</v>
       </c>
       <c r="Q52" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R52">
         <v>97</v>
@@ -9737,10 +9744,10 @@
         <v>65</v>
       </c>
       <c r="W52" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="X52" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Y52">
         <v>91</v>
@@ -9779,10 +9786,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AT52" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AU52">
         <v>79.05</v>
@@ -9808,31 +9815,31 @@
         <v>483</v>
       </c>
       <c r="B53" t="s">
+        <v>685</v>
+      </c>
+      <c r="C53" t="s">
         <v>686</v>
-      </c>
-      <c r="C53" t="s">
-        <v>687</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
       </c>
       <c r="E53" t="s">
+        <v>687</v>
+      </c>
+      <c r="F53" t="s">
         <v>688</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>689</v>
-      </c>
-      <c r="G53" t="s">
-        <v>690</v>
       </c>
       <c r="H53" t="s">
         <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="J53" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K53" t="s">
         <v>302</v>
@@ -9841,19 +9848,19 @@
         <v>92</v>
       </c>
       <c r="M53" t="s">
+        <v>691</v>
+      </c>
+      <c r="N53" t="s">
         <v>692</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>693</v>
-      </c>
-      <c r="O53" t="s">
-        <v>694</v>
       </c>
       <c r="P53">
         <v>260</v>
       </c>
       <c r="Q53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -9862,16 +9869,16 @@
         <v>13</v>
       </c>
       <c r="U53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="V53" t="s">
         <v>65</v>
       </c>
       <c r="W53" t="s">
+        <v>696</v>
+      </c>
+      <c r="X53" t="s">
         <v>697</v>
-      </c>
-      <c r="X53" t="s">
-        <v>698</v>
       </c>
       <c r="AM53">
         <v>82</v>
@@ -9886,13 +9893,13 @@
         <v>68.400000000000006</v>
       </c>
       <c r="AQ53" t="s">
+        <v>698</v>
+      </c>
+      <c r="AR53" t="s">
         <v>699</v>
       </c>
-      <c r="AR53" t="s">
-        <v>700</v>
-      </c>
       <c r="AS53" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
@@ -9900,52 +9907,52 @@
         <v>479</v>
       </c>
       <c r="B54" t="s">
+        <v>700</v>
+      </c>
+      <c r="C54" t="s">
         <v>701</v>
-      </c>
-      <c r="C54" t="s">
-        <v>702</v>
       </c>
       <c r="D54" t="s">
         <v>54</v>
       </c>
       <c r="E54" t="s">
+        <v>702</v>
+      </c>
+      <c r="F54" t="s">
         <v>703</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>704</v>
-      </c>
-      <c r="G54" t="s">
-        <v>705</v>
       </c>
       <c r="H54" t="s">
         <v>72</v>
       </c>
       <c r="I54" t="s">
+        <v>705</v>
+      </c>
+      <c r="J54" t="s">
         <v>706</v>
-      </c>
-      <c r="J54" t="s">
-        <v>707</v>
       </c>
       <c r="K54" t="s">
         <v>75</v>
       </c>
       <c r="L54" t="s">
+        <v>707</v>
+      </c>
+      <c r="M54" t="s">
         <v>708</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>709</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>710</v>
-      </c>
-      <c r="O54" t="s">
-        <v>711</v>
       </c>
       <c r="P54">
         <v>1568</v>
       </c>
       <c r="Q54" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R54">
         <v>42</v>
@@ -9963,7 +9970,7 @@
         <v>81</v>
       </c>
       <c r="W54" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="X54" t="s">
         <v>97</v>
@@ -10007,28 +10014,28 @@
         <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>714</v>
+      </c>
+      <c r="F55" t="s">
         <v>715</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>716</v>
-      </c>
-      <c r="G55" t="s">
-        <v>717</v>
       </c>
       <c r="H55" t="s">
         <v>72</v>
       </c>
       <c r="I55" t="s">
+        <v>717</v>
+      </c>
+      <c r="J55" t="s">
         <v>718</v>
-      </c>
-      <c r="J55" t="s">
-        <v>719</v>
       </c>
       <c r="K55" t="s">
         <v>58</v>
@@ -10037,19 +10044,19 @@
         <v>92</v>
       </c>
       <c r="M55" t="s">
+        <v>719</v>
+      </c>
+      <c r="N55" t="s">
         <v>720</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>721</v>
-      </c>
-      <c r="O55" t="s">
-        <v>722</v>
       </c>
       <c r="P55">
         <v>126</v>
       </c>
       <c r="Q55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R55">
         <v>18</v>
@@ -10061,16 +10068,16 @@
         <v>4764</v>
       </c>
       <c r="U55" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="V55" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="W55" t="s">
+        <v>723</v>
+      </c>
+      <c r="X55" t="s">
         <v>724</v>
-      </c>
-      <c r="X55" t="s">
-        <v>725</v>
       </c>
       <c r="Y55">
         <v>85</v>
@@ -10121,10 +10128,10 @@
         <v>323</v>
       </c>
       <c r="AS55" t="s">
+        <v>725</v>
+      </c>
+      <c r="AT55" t="s">
         <v>726</v>
-      </c>
-      <c r="AT55" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
@@ -10132,22 +10139,22 @@
         <v>475</v>
       </c>
       <c r="B56" t="s">
+        <v>727</v>
+      </c>
+      <c r="C56" t="s">
         <v>728</v>
-      </c>
-      <c r="C56" t="s">
-        <v>729</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
       </c>
       <c r="E56" t="s">
+        <v>729</v>
+      </c>
+      <c r="F56" t="s">
         <v>730</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>731</v>
-      </c>
-      <c r="G56" t="s">
-        <v>732</v>
       </c>
       <c r="H56" t="s">
         <v>72</v>
@@ -10156,7 +10163,7 @@
         <v>365</v>
       </c>
       <c r="J56" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K56" t="s">
         <v>75</v>
@@ -10165,13 +10172,13 @@
         <v>76</v>
       </c>
       <c r="M56" t="s">
+        <v>733</v>
+      </c>
+      <c r="N56" t="s">
         <v>734</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>735</v>
-      </c>
-      <c r="O56" t="s">
-        <v>736</v>
       </c>
       <c r="P56">
         <v>78</v>
@@ -10186,16 +10193,16 @@
         <v>1510</v>
       </c>
       <c r="U56" t="s">
+        <v>736</v>
+      </c>
+      <c r="V56" t="s">
         <v>737</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>738</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>739</v>
-      </c>
-      <c r="X56" t="s">
-        <v>740</v>
       </c>
       <c r="Y56">
         <v>79.5</v>
@@ -10242,22 +10249,22 @@
         <v>459</v>
       </c>
       <c r="B57" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C57" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D57" t="s">
         <v>54</v>
       </c>
       <c r="E57" t="s">
+        <v>741</v>
+      </c>
+      <c r="F57" t="s">
         <v>742</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>743</v>
-      </c>
-      <c r="G57" t="s">
-        <v>744</v>
       </c>
       <c r="H57" t="s">
         <v>72</v>
@@ -10275,19 +10282,19 @@
         <v>316</v>
       </c>
       <c r="M57" t="s">
+        <v>744</v>
+      </c>
+      <c r="N57" t="s">
         <v>745</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>746</v>
-      </c>
-      <c r="O57" t="s">
-        <v>747</v>
       </c>
       <c r="P57">
         <v>56</v>
       </c>
       <c r="Q57" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R57">
         <v>14</v>
@@ -10299,13 +10306,13 @@
         <v>4726</v>
       </c>
       <c r="U57" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V57" t="s">
         <v>321</v>
       </c>
       <c r="W57" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="X57" t="s">
         <v>81</v>
@@ -10367,43 +10374,43 @@
         <v>434</v>
       </c>
       <c r="B58" t="s">
+        <v>750</v>
+      </c>
+      <c r="C58" t="s">
         <v>751</v>
-      </c>
-      <c r="C58" t="s">
-        <v>752</v>
       </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
       <c r="E58" t="s">
+        <v>752</v>
+      </c>
+      <c r="F58" t="s">
+        <v>751</v>
+      </c>
+      <c r="G58" t="s">
         <v>753</v>
-      </c>
-      <c r="F58" t="s">
-        <v>752</v>
-      </c>
-      <c r="G58" t="s">
-        <v>754</v>
       </c>
       <c r="H58" t="s">
         <v>378</v>
       </c>
       <c r="I58" t="s">
+        <v>754</v>
+      </c>
+      <c r="J58" t="s">
         <v>755</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>756</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>757</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>758</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>759</v>
-      </c>
-      <c r="O58" t="s">
-        <v>760</v>
       </c>
       <c r="P58">
         <v>1155</v>
@@ -10415,16 +10422,16 @@
         <v>16</v>
       </c>
       <c r="U58" t="s">
+        <v>760</v>
+      </c>
+      <c r="V58" t="s">
         <v>761</v>
       </c>
-      <c r="V58" t="s">
+      <c r="W58" t="s">
         <v>762</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>763</v>
-      </c>
-      <c r="X58" t="s">
-        <v>764</v>
       </c>
       <c r="Y58">
         <v>93</v>
@@ -10462,52 +10469,52 @@
         <v>397</v>
       </c>
       <c r="B59" t="s">
+        <v>764</v>
+      </c>
+      <c r="C59" t="s">
         <v>765</v>
-      </c>
-      <c r="C59" t="s">
-        <v>766</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="E59" t="s">
+        <v>766</v>
+      </c>
+      <c r="F59" t="s">
         <v>767</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>768</v>
-      </c>
-      <c r="G59" t="s">
-        <v>769</v>
       </c>
       <c r="H59" t="s">
         <v>72</v>
       </c>
       <c r="I59" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J59" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K59" t="s">
         <v>142</v>
       </c>
       <c r="L59" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M59" t="s">
+        <v>770</v>
+      </c>
+      <c r="N59" t="s">
         <v>771</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>772</v>
-      </c>
-      <c r="O59" t="s">
-        <v>773</v>
       </c>
       <c r="P59">
         <v>565</v>
       </c>
       <c r="Q59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R59">
         <v>28</v>
@@ -10525,10 +10532,10 @@
         <v>81</v>
       </c>
       <c r="W59" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X59" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Y59">
         <v>77</v>
@@ -10578,52 +10585,52 @@
         <v>357</v>
       </c>
       <c r="B60" t="s">
+        <v>775</v>
+      </c>
+      <c r="C60" t="s">
         <v>776</v>
-      </c>
-      <c r="C60" t="s">
-        <v>777</v>
       </c>
       <c r="D60" t="s">
         <v>54</v>
       </c>
       <c r="E60" t="s">
+        <v>777</v>
+      </c>
+      <c r="F60" t="s">
         <v>778</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>779</v>
-      </c>
-      <c r="G60" t="s">
-        <v>780</v>
       </c>
       <c r="H60" t="s">
         <v>72</v>
       </c>
       <c r="I60" t="s">
+        <v>780</v>
+      </c>
+      <c r="J60" t="s">
         <v>781</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>782</v>
-      </c>
-      <c r="K60" t="s">
-        <v>783</v>
       </c>
       <c r="L60" t="s">
         <v>143</v>
       </c>
       <c r="M60" t="s">
+        <v>783</v>
+      </c>
+      <c r="N60" t="s">
         <v>784</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>785</v>
-      </c>
-      <c r="O60" t="s">
-        <v>786</v>
       </c>
       <c r="P60">
         <v>319</v>
       </c>
       <c r="Q60" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R60">
         <v>16</v>
@@ -10638,10 +10645,10 @@
         <v>81</v>
       </c>
       <c r="W60" t="s">
+        <v>787</v>
+      </c>
+      <c r="X60" t="s">
         <v>788</v>
-      </c>
-      <c r="X60" t="s">
-        <v>789</v>
       </c>
       <c r="Y60">
         <v>83</v>
@@ -10691,52 +10698,52 @@
         <v>352</v>
       </c>
       <c r="B61" t="s">
+        <v>789</v>
+      </c>
+      <c r="C61" t="s">
         <v>790</v>
-      </c>
-      <c r="C61" t="s">
-        <v>791</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" t="s">
+        <v>791</v>
+      </c>
+      <c r="F61" t="s">
+        <v>790</v>
+      </c>
+      <c r="G61" t="s">
         <v>792</v>
-      </c>
-      <c r="F61" t="s">
-        <v>791</v>
-      </c>
-      <c r="G61" t="s">
-        <v>793</v>
       </c>
       <c r="H61" t="s">
         <v>72</v>
       </c>
       <c r="I61" t="s">
+        <v>793</v>
+      </c>
+      <c r="J61" t="s">
         <v>794</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>795</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>796</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>797</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>798</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>799</v>
-      </c>
-      <c r="O61" t="s">
-        <v>800</v>
       </c>
       <c r="P61">
         <v>1508</v>
       </c>
       <c r="Q61" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R61">
         <v>34</v>
@@ -10748,7 +10755,7 @@
         <v>64731</v>
       </c>
       <c r="U61" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="V61" t="s">
         <v>97</v>
@@ -10789,22 +10796,22 @@
         <v>341</v>
       </c>
       <c r="B62" t="s">
+        <v>802</v>
+      </c>
+      <c r="C62" t="s">
         <v>803</v>
-      </c>
-      <c r="C62" t="s">
-        <v>804</v>
       </c>
       <c r="D62" t="s">
         <v>54</v>
       </c>
       <c r="E62" t="s">
+        <v>804</v>
+      </c>
+      <c r="F62" t="s">
+        <v>803</v>
+      </c>
+      <c r="G62" t="s">
         <v>805</v>
-      </c>
-      <c r="F62" t="s">
-        <v>804</v>
-      </c>
-      <c r="G62" t="s">
-        <v>806</v>
       </c>
       <c r="H62" t="s">
         <v>72</v>
@@ -10813,7 +10820,7 @@
         <v>125</v>
       </c>
       <c r="J62" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K62" t="s">
         <v>262</v>
@@ -10822,19 +10829,19 @@
         <v>76</v>
       </c>
       <c r="M62" t="s">
+        <v>807</v>
+      </c>
+      <c r="N62" t="s">
         <v>808</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>809</v>
-      </c>
-      <c r="O62" t="s">
-        <v>810</v>
       </c>
       <c r="P62">
         <v>11</v>
       </c>
       <c r="Q62" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R62">
         <v>11</v>
@@ -10846,13 +10853,13 @@
         <v>1159</v>
       </c>
       <c r="U62" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V62" t="s">
         <v>279</v>
       </c>
       <c r="W62" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="X62" t="s">
         <v>365</v>
@@ -10899,52 +10906,52 @@
         <v>311</v>
       </c>
       <c r="B63" t="s">
+        <v>813</v>
+      </c>
+      <c r="C63" t="s">
         <v>814</v>
-      </c>
-      <c r="C63" t="s">
-        <v>815</v>
       </c>
       <c r="D63" t="s">
         <v>54</v>
       </c>
       <c r="E63" t="s">
+        <v>815</v>
+      </c>
+      <c r="F63" t="s">
         <v>816</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>817</v>
-      </c>
-      <c r="G63" t="s">
-        <v>818</v>
       </c>
       <c r="H63" t="s">
         <v>72</v>
       </c>
       <c r="I63" t="s">
+        <v>818</v>
+      </c>
+      <c r="J63" t="s">
         <v>819</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>820</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
+        <v>796</v>
+      </c>
+      <c r="M63" t="s">
         <v>821</v>
       </c>
-      <c r="L63" t="s">
-        <v>797</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>822</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>823</v>
-      </c>
-      <c r="O63" t="s">
-        <v>824</v>
       </c>
       <c r="P63">
         <v>416</v>
       </c>
       <c r="Q63" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R63">
         <v>26</v>
@@ -10962,10 +10969,10 @@
         <v>81</v>
       </c>
       <c r="W63" t="s">
+        <v>825</v>
+      </c>
+      <c r="X63" t="s">
         <v>826</v>
-      </c>
-      <c r="X63" t="s">
-        <v>827</v>
       </c>
       <c r="Y63">
         <v>84.7</v>
@@ -11024,46 +11031,46 @@
         <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D64" t="s">
         <v>54</v>
       </c>
       <c r="E64" t="s">
+        <v>828</v>
+      </c>
+      <c r="F64" t="s">
         <v>829</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>830</v>
-      </c>
-      <c r="G64" t="s">
-        <v>831</v>
       </c>
       <c r="H64" t="s">
         <v>72</v>
       </c>
       <c r="J64" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K64" t="s">
         <v>142</v>
       </c>
       <c r="L64" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M64" t="s">
+        <v>832</v>
+      </c>
+      <c r="N64" t="s">
         <v>833</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>834</v>
-      </c>
-      <c r="O64" t="s">
-        <v>835</v>
       </c>
       <c r="P64">
         <v>4844</v>
       </c>
       <c r="Q64" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="R64">
         <v>149</v>
@@ -11081,10 +11088,10 @@
         <v>81</v>
       </c>
       <c r="W64" t="s">
+        <v>836</v>
+      </c>
+      <c r="X64" t="s">
         <v>837</v>
-      </c>
-      <c r="X64" t="s">
-        <v>838</v>
       </c>
       <c r="Y64">
         <v>78</v>
@@ -11116,52 +11123,52 @@
         <v>303</v>
       </c>
       <c r="B65" t="s">
+        <v>838</v>
+      </c>
+      <c r="C65" t="s">
         <v>839</v>
-      </c>
-      <c r="C65" t="s">
-        <v>840</v>
       </c>
       <c r="D65" t="s">
         <v>54</v>
       </c>
       <c r="E65" t="s">
+        <v>840</v>
+      </c>
+      <c r="F65" t="s">
         <v>841</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>842</v>
-      </c>
-      <c r="G65" t="s">
-        <v>843</v>
       </c>
       <c r="H65" t="s">
         <v>72</v>
       </c>
       <c r="I65" t="s">
+        <v>843</v>
+      </c>
+      <c r="J65" t="s">
+        <v>794</v>
+      </c>
+      <c r="K65" t="s">
         <v>844</v>
-      </c>
-      <c r="J65" t="s">
-        <v>795</v>
-      </c>
-      <c r="K65" t="s">
-        <v>845</v>
       </c>
       <c r="L65" t="s">
         <v>143</v>
       </c>
       <c r="M65" t="s">
+        <v>845</v>
+      </c>
+      <c r="N65" t="s">
         <v>846</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>847</v>
-      </c>
-      <c r="O65" t="s">
-        <v>848</v>
       </c>
       <c r="P65">
         <v>672</v>
       </c>
       <c r="Q65" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="R65">
         <v>56</v>
@@ -11179,7 +11186,7 @@
         <v>498</v>
       </c>
       <c r="X65" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Y65">
         <v>87</v>
@@ -11235,28 +11242,28 @@
         <v>289</v>
       </c>
       <c r="B66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D66" t="s">
         <v>54</v>
       </c>
       <c r="E66" t="s">
+        <v>851</v>
+      </c>
+      <c r="F66" t="s">
         <v>852</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>853</v>
-      </c>
-      <c r="G66" t="s">
-        <v>854</v>
       </c>
       <c r="H66" t="s">
         <v>72</v>
       </c>
       <c r="I66" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J66" t="s">
         <v>301</v>
@@ -11268,19 +11275,19 @@
         <v>143</v>
       </c>
       <c r="M66" t="s">
+        <v>855</v>
+      </c>
+      <c r="N66" t="s">
         <v>856</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>857</v>
-      </c>
-      <c r="O66" t="s">
-        <v>858</v>
       </c>
       <c r="P66">
         <v>3485</v>
       </c>
       <c r="Q66" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R66">
         <v>92</v>
@@ -11292,10 +11299,10 @@
         <v>65</v>
       </c>
       <c r="V66" t="s">
+        <v>859</v>
+      </c>
+      <c r="W66" t="s">
         <v>860</v>
-      </c>
-      <c r="W66" t="s">
-        <v>861</v>
       </c>
       <c r="Y66">
         <v>82</v>
@@ -11327,52 +11334,52 @@
         <v>287</v>
       </c>
       <c r="B67" t="s">
+        <v>861</v>
+      </c>
+      <c r="C67" t="s">
         <v>862</v>
-      </c>
-      <c r="C67" t="s">
-        <v>863</v>
       </c>
       <c r="D67" t="s">
         <v>54</v>
       </c>
       <c r="E67" t="s">
+        <v>863</v>
+      </c>
+      <c r="F67" t="s">
+        <v>862</v>
+      </c>
+      <c r="G67" t="s">
         <v>864</v>
-      </c>
-      <c r="F67" t="s">
-        <v>863</v>
-      </c>
-      <c r="G67" t="s">
-        <v>865</v>
       </c>
       <c r="H67" t="s">
         <v>72</v>
       </c>
       <c r="I67" t="s">
+        <v>865</v>
+      </c>
+      <c r="J67" t="s">
+        <v>794</v>
+      </c>
+      <c r="K67" t="s">
         <v>866</v>
-      </c>
-      <c r="J67" t="s">
-        <v>795</v>
-      </c>
-      <c r="K67" t="s">
-        <v>867</v>
       </c>
       <c r="L67" t="s">
         <v>143</v>
       </c>
       <c r="M67" t="s">
+        <v>867</v>
+      </c>
+      <c r="N67" t="s">
         <v>868</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>869</v>
-      </c>
-      <c r="O67" t="s">
-        <v>870</v>
       </c>
       <c r="P67">
         <v>152</v>
       </c>
       <c r="Q67" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R67">
         <v>38</v>
@@ -11387,13 +11394,13 @@
         <v>64</v>
       </c>
       <c r="V67" t="s">
+        <v>871</v>
+      </c>
+      <c r="W67" t="s">
         <v>872</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>873</v>
-      </c>
-      <c r="X67" t="s">
-        <v>874</v>
       </c>
       <c r="Y67">
         <v>83</v>
@@ -11426,7 +11433,7 @@
         <v>0.09</v>
       </c>
       <c r="AS67" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AT67">
         <v>0.24</v>
@@ -11437,31 +11444,31 @@
         <v>286</v>
       </c>
       <c r="B68" t="s">
+        <v>875</v>
+      </c>
+      <c r="C68" t="s">
         <v>876</v>
-      </c>
-      <c r="C68" t="s">
-        <v>877</v>
       </c>
       <c r="D68" t="s">
         <v>54</v>
       </c>
       <c r="E68" t="s">
+        <v>877</v>
+      </c>
+      <c r="F68" t="s">
         <v>878</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>879</v>
-      </c>
-      <c r="G68" t="s">
-        <v>880</v>
       </c>
       <c r="H68" t="s">
         <v>72</v>
       </c>
       <c r="I68" t="s">
+        <v>880</v>
+      </c>
+      <c r="J68" t="s">
         <v>881</v>
-      </c>
-      <c r="J68" t="s">
-        <v>882</v>
       </c>
       <c r="K68" t="s">
         <v>142</v>
@@ -11470,16 +11477,16 @@
         <v>143</v>
       </c>
       <c r="M68" t="s">
+        <v>882</v>
+      </c>
+      <c r="N68" t="s">
         <v>883</v>
-      </c>
-      <c r="N68" t="s">
-        <v>884</v>
       </c>
       <c r="P68">
         <v>7116</v>
       </c>
       <c r="Q68" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="R68">
         <v>69</v>
@@ -11497,10 +11504,10 @@
         <v>81</v>
       </c>
       <c r="W68" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="X68" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Y68">
         <v>88</v>
@@ -11527,10 +11534,10 @@
         <v>94</v>
       </c>
       <c r="AQ68" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AR68" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="69" spans="1:56" x14ac:dyDescent="0.25">
@@ -11538,31 +11545,31 @@
         <v>283</v>
       </c>
       <c r="B69" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C69" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
       </c>
       <c r="E69" t="s">
+        <v>888</v>
+      </c>
+      <c r="F69" t="s">
         <v>889</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>890</v>
-      </c>
-      <c r="G69" t="s">
-        <v>891</v>
       </c>
       <c r="H69" t="s">
         <v>72</v>
       </c>
       <c r="I69" t="s">
+        <v>891</v>
+      </c>
+      <c r="J69" t="s">
         <v>892</v>
-      </c>
-      <c r="J69" t="s">
-        <v>893</v>
       </c>
       <c r="K69" t="s">
         <v>142</v>
@@ -11571,19 +11578,19 @@
         <v>143</v>
       </c>
       <c r="M69" t="s">
+        <v>893</v>
+      </c>
+      <c r="N69" t="s">
         <v>894</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>895</v>
-      </c>
-      <c r="O69" t="s">
-        <v>896</v>
       </c>
       <c r="P69">
         <v>1497</v>
       </c>
       <c r="Q69" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R69">
         <v>182</v>
@@ -11601,10 +11608,10 @@
         <v>65</v>
       </c>
       <c r="W69" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="X69" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AO69">
         <v>91.55</v>
@@ -11613,10 +11620,10 @@
         <v>88.93</v>
       </c>
       <c r="AQ69" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AR69" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AS69">
         <v>0.38479999999999998</v>
@@ -11642,31 +11649,31 @@
         <v>278</v>
       </c>
       <c r="B70" t="s">
+        <v>898</v>
+      </c>
+      <c r="C70" t="s">
         <v>899</v>
-      </c>
-      <c r="C70" t="s">
-        <v>900</v>
       </c>
       <c r="D70" t="s">
         <v>54</v>
       </c>
       <c r="E70" t="s">
+        <v>900</v>
+      </c>
+      <c r="F70" t="s">
+        <v>899</v>
+      </c>
+      <c r="G70" t="s">
         <v>901</v>
-      </c>
-      <c r="F70" t="s">
-        <v>900</v>
-      </c>
-      <c r="G70" t="s">
-        <v>902</v>
       </c>
       <c r="H70" t="s">
         <v>72</v>
       </c>
       <c r="I70" t="s">
+        <v>902</v>
+      </c>
+      <c r="J70" t="s">
         <v>903</v>
-      </c>
-      <c r="J70" t="s">
-        <v>904</v>
       </c>
       <c r="K70" t="s">
         <v>58</v>
@@ -11675,19 +11682,19 @@
         <v>316</v>
       </c>
       <c r="M70" t="s">
+        <v>904</v>
+      </c>
+      <c r="N70" t="s">
         <v>905</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>906</v>
-      </c>
-      <c r="O70" t="s">
-        <v>907</v>
       </c>
       <c r="P70">
         <v>363</v>
       </c>
       <c r="Q70" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="R70">
         <v>23</v>
@@ -11699,16 +11706,16 @@
         <v>11005</v>
       </c>
       <c r="U70" t="s">
+        <v>908</v>
+      </c>
+      <c r="V70" t="s">
+        <v>908</v>
+      </c>
+      <c r="W70" t="s">
         <v>909</v>
       </c>
-      <c r="V70" t="s">
-        <v>909</v>
-      </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>910</v>
-      </c>
-      <c r="X70" t="s">
-        <v>911</v>
       </c>
       <c r="Y70">
         <v>76</v>
@@ -11743,22 +11750,22 @@
         <v>275</v>
       </c>
       <c r="B71" t="s">
+        <v>911</v>
+      </c>
+      <c r="C71" t="s">
         <v>912</v>
-      </c>
-      <c r="C71" t="s">
-        <v>913</v>
       </c>
       <c r="D71" t="s">
         <v>54</v>
       </c>
       <c r="E71" t="s">
+        <v>913</v>
+      </c>
+      <c r="F71" t="s">
+        <v>912</v>
+      </c>
+      <c r="G71" t="s">
         <v>914</v>
-      </c>
-      <c r="F71" t="s">
-        <v>913</v>
-      </c>
-      <c r="G71" t="s">
-        <v>915</v>
       </c>
       <c r="H71" t="s">
         <v>378</v>
@@ -11770,25 +11777,25 @@
         <v>125</v>
       </c>
       <c r="K71" t="s">
+        <v>915</v>
+      </c>
+      <c r="L71" t="s">
+        <v>915</v>
+      </c>
+      <c r="M71" t="s">
         <v>916</v>
       </c>
-      <c r="L71" t="s">
-        <v>916</v>
-      </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>917</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>918</v>
-      </c>
-      <c r="O71" t="s">
-        <v>919</v>
       </c>
       <c r="P71">
         <v>2607</v>
       </c>
       <c r="Q71" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="R71">
         <v>12</v>
@@ -11859,28 +11866,28 @@
         <v>271</v>
       </c>
       <c r="B72" t="s">
+        <v>920</v>
+      </c>
+      <c r="C72" t="s">
         <v>921</v>
-      </c>
-      <c r="C72" t="s">
-        <v>922</v>
       </c>
       <c r="D72" t="s">
         <v>54</v>
       </c>
       <c r="E72" t="s">
+        <v>922</v>
+      </c>
+      <c r="F72" t="s">
+        <v>921</v>
+      </c>
+      <c r="G72" t="s">
         <v>923</v>
-      </c>
-      <c r="F72" t="s">
-        <v>922</v>
-      </c>
-      <c r="G72" t="s">
-        <v>924</v>
       </c>
       <c r="H72" t="s">
         <v>72</v>
       </c>
       <c r="I72" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J72" t="s">
         <v>155</v>
@@ -11892,19 +11899,19 @@
         <v>59</v>
       </c>
       <c r="M72" t="s">
+        <v>925</v>
+      </c>
+      <c r="N72" t="s">
         <v>926</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>927</v>
-      </c>
-      <c r="O72" t="s">
-        <v>928</v>
       </c>
       <c r="P72">
         <v>2493</v>
       </c>
       <c r="Q72" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="R72">
         <v>7</v>
@@ -11916,16 +11923,16 @@
         <v>447676</v>
       </c>
       <c r="U72" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="V72" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="W72" t="s">
+        <v>929</v>
+      </c>
+      <c r="X72" t="s">
         <v>930</v>
-      </c>
-      <c r="X72" t="s">
-        <v>931</v>
       </c>
       <c r="BA72">
         <v>71.83</v>
@@ -11945,52 +11952,52 @@
         <v>266</v>
       </c>
       <c r="B73" t="s">
+        <v>931</v>
+      </c>
+      <c r="C73" t="s">
         <v>932</v>
-      </c>
-      <c r="C73" t="s">
-        <v>933</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
       </c>
       <c r="E73" t="s">
+        <v>933</v>
+      </c>
+      <c r="F73" t="s">
+        <v>932</v>
+      </c>
+      <c r="G73" t="s">
         <v>934</v>
-      </c>
-      <c r="F73" t="s">
-        <v>933</v>
-      </c>
-      <c r="G73" t="s">
-        <v>935</v>
       </c>
       <c r="H73" t="s">
         <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K73" t="s">
+        <v>935</v>
+      </c>
+      <c r="L73" t="s">
+        <v>707</v>
+      </c>
+      <c r="M73" t="s">
         <v>936</v>
       </c>
-      <c r="L73" t="s">
-        <v>708</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>937</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>938</v>
-      </c>
-      <c r="O73" t="s">
-        <v>939</v>
       </c>
       <c r="P73">
         <v>426</v>
       </c>
       <c r="Q73" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="R73">
         <v>9</v>
@@ -12002,16 +12009,16 @@
         <v>719</v>
       </c>
       <c r="U73" t="s">
+        <v>940</v>
+      </c>
+      <c r="V73" t="s">
         <v>941</v>
-      </c>
-      <c r="V73" t="s">
-        <v>942</v>
       </c>
       <c r="W73" t="s">
         <v>134</v>
       </c>
       <c r="X73" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="Y73">
         <v>73</v>
@@ -12067,52 +12074,52 @@
         <v>261</v>
       </c>
       <c r="B74" t="s">
+        <v>943</v>
+      </c>
+      <c r="C74" t="s">
         <v>944</v>
-      </c>
-      <c r="C74" t="s">
-        <v>945</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
       </c>
       <c r="E74" t="s">
+        <v>945</v>
+      </c>
+      <c r="F74" t="s">
         <v>946</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>947</v>
-      </c>
-      <c r="G74" t="s">
-        <v>948</v>
       </c>
       <c r="H74" t="s">
         <v>72</v>
       </c>
       <c r="I74" t="s">
+        <v>948</v>
+      </c>
+      <c r="J74" t="s">
         <v>949</v>
       </c>
-      <c r="J74" t="s">
-        <v>950</v>
-      </c>
       <c r="K74" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L74" t="s">
         <v>143</v>
       </c>
       <c r="M74" t="s">
+        <v>950</v>
+      </c>
+      <c r="N74" t="s">
         <v>951</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>952</v>
-      </c>
-      <c r="O74" t="s">
-        <v>953</v>
       </c>
       <c r="P74">
         <v>308</v>
       </c>
       <c r="Q74" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="R74">
         <v>12</v>
@@ -12127,10 +12134,10 @@
         <v>416</v>
       </c>
       <c r="W74" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="X74" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="Y74">
         <v>78.7</v>
@@ -12157,16 +12164,16 @@
         <v>22.7</v>
       </c>
       <c r="AQ74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AR74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AS74" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="AT74" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.25">
@@ -12174,28 +12181,28 @@
         <v>107</v>
       </c>
       <c r="B75" t="s">
+        <v>955</v>
+      </c>
+      <c r="C75" t="s">
         <v>956</v>
-      </c>
-      <c r="C75" t="s">
-        <v>957</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
       </c>
       <c r="E75" t="s">
+        <v>957</v>
+      </c>
+      <c r="F75" t="s">
         <v>958</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>959</v>
-      </c>
-      <c r="G75" t="s">
-        <v>960</v>
       </c>
       <c r="H75" t="s">
         <v>72</v>
       </c>
       <c r="I75" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J75" t="s">
         <v>102</v>
@@ -12204,10 +12211,10 @@
         <v>262</v>
       </c>
       <c r="L75" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M75" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="N75" t="e">
         <v>#NAME?</v>
@@ -12219,7 +12226,7 @@
         <v>67</v>
       </c>
       <c r="Q75" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="R75">
         <v>11</v>
@@ -12237,10 +12244,10 @@
         <v>384</v>
       </c>
       <c r="W75" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="X75" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Y75">
         <v>83.1</v>
@@ -12278,28 +12285,28 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
+        <v>963</v>
+      </c>
+      <c r="C76" t="s">
         <v>964</v>
-      </c>
-      <c r="C76" t="s">
-        <v>965</v>
       </c>
       <c r="D76" t="s">
         <v>54</v>
       </c>
       <c r="E76" t="s">
+        <v>965</v>
+      </c>
+      <c r="F76" t="s">
+        <v>964</v>
+      </c>
+      <c r="G76" t="s">
         <v>966</v>
-      </c>
-      <c r="F76" t="s">
-        <v>965</v>
-      </c>
-      <c r="G76" t="s">
-        <v>967</v>
       </c>
       <c r="H76" t="s">
         <v>72</v>
       </c>
       <c r="J76" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K76" t="s">
         <v>506</v>
@@ -12308,10 +12315,10 @@
         <v>143</v>
       </c>
       <c r="M76" t="s">
+        <v>968</v>
+      </c>
+      <c r="N76" t="s">
         <v>969</v>
-      </c>
-      <c r="N76" t="s">
-        <v>970</v>
       </c>
       <c r="O76" t="e">
         <v>#NAME?</v>
@@ -12320,7 +12327,7 @@
         <v>32</v>
       </c>
       <c r="Q76" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="R76">
         <v>5</v>
@@ -12332,16 +12339,16 @@
         <v>675</v>
       </c>
       <c r="U76" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="V76" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="W76" t="s">
+        <v>971</v>
+      </c>
+      <c r="X76" t="s">
         <v>972</v>
-      </c>
-      <c r="X76" t="s">
-        <v>973</v>
       </c>
       <c r="Y76">
         <v>88.45</v>
@@ -12374,10 +12381,10 @@
         <v>11.81</v>
       </c>
       <c r="AQ76" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AR76" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AY76">
         <v>92.53</v>
@@ -12391,52 +12398,52 @@
         <v>60</v>
       </c>
       <c r="B77" t="s">
+        <v>974</v>
+      </c>
+      <c r="C77" t="s">
         <v>975</v>
-      </c>
-      <c r="C77" t="s">
-        <v>976</v>
       </c>
       <c r="D77" t="s">
         <v>54</v>
       </c>
       <c r="E77" t="s">
+        <v>976</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G77" t="s">
         <v>977</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G77" t="s">
-        <v>978</v>
       </c>
       <c r="H77" t="s">
         <v>72</v>
       </c>
       <c r="I77" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J77" t="s">
         <v>365</v>
       </c>
       <c r="K77" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L77" t="s">
         <v>143</v>
       </c>
       <c r="M77" t="s">
+        <v>979</v>
+      </c>
+      <c r="N77" t="s">
         <v>980</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>981</v>
-      </c>
-      <c r="O77" t="s">
-        <v>982</v>
       </c>
       <c r="P77">
         <v>1644</v>
       </c>
       <c r="Q77" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R77">
         <v>36</v>
@@ -12448,16 +12455,16 @@
         <v>9</v>
       </c>
       <c r="U77" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V77" t="s">
         <v>97</v>
       </c>
       <c r="W77" t="s">
+        <v>984</v>
+      </c>
+      <c r="X77" t="s">
         <v>985</v>
-      </c>
-      <c r="X77" t="s">
-        <v>986</v>
       </c>
       <c r="Y77">
         <v>91</v>
@@ -12519,31 +12526,31 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
+        <v>986</v>
+      </c>
+      <c r="C78" t="s">
         <v>987</v>
-      </c>
-      <c r="C78" t="s">
-        <v>988</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
       </c>
       <c r="E78" t="s">
+        <v>988</v>
+      </c>
+      <c r="F78" t="s">
         <v>989</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>990</v>
-      </c>
-      <c r="G78" t="s">
-        <v>991</v>
       </c>
       <c r="H78" t="s">
         <v>72</v>
       </c>
       <c r="I78" t="s">
+        <v>991</v>
+      </c>
+      <c r="J78" t="s">
         <v>992</v>
-      </c>
-      <c r="J78" t="s">
-        <v>993</v>
       </c>
       <c r="K78" t="s">
         <v>506</v>
@@ -12552,19 +12559,19 @@
         <v>92</v>
       </c>
       <c r="M78" t="s">
+        <v>993</v>
+      </c>
+      <c r="N78" t="s">
         <v>994</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>995</v>
-      </c>
-      <c r="O78" t="s">
-        <v>996</v>
       </c>
       <c r="P78">
         <v>327</v>
       </c>
       <c r="Q78" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R78">
         <v>26</v>
@@ -12582,10 +12589,10 @@
         <v>175</v>
       </c>
       <c r="W78" t="s">
+        <v>997</v>
+      </c>
+      <c r="X78" t="s">
         <v>998</v>
-      </c>
-      <c r="X78" t="s">
-        <v>999</v>
       </c>
       <c r="Y78">
         <v>79.400000000000006</v>
@@ -12624,22 +12631,22 @@
         <v>89</v>
       </c>
       <c r="AO78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AP78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AQ78" t="s">
+        <v>999</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>999</v>
+      </c>
+      <c r="AS78" t="s">
         <v>1000</v>
       </c>
-      <c r="AR78" t="s">
+      <c r="AT78" t="s">
         <v>1000</v>
-      </c>
-      <c r="AS78" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>1001</v>
       </c>
       <c r="AY78">
         <v>80</v>
@@ -12653,28 +12660,28 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C79" t="s">
         <v>1002</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1003</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>
       </c>
       <c r="E79" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F79" t="s">
         <v>1004</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>1005</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1006</v>
       </c>
       <c r="H79" t="s">
         <v>72</v>
       </c>
       <c r="I79" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J79" t="s">
         <v>250</v>
@@ -12686,19 +12693,19 @@
         <v>76</v>
       </c>
       <c r="M79" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N79" t="s">
         <v>1008</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>1009</v>
-      </c>
-      <c r="O79" t="s">
-        <v>1010</v>
       </c>
       <c r="P79">
         <v>321</v>
       </c>
       <c r="Q79" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="R79">
         <v>57</v>
@@ -12716,10 +12723,10 @@
         <v>65</v>
       </c>
       <c r="W79" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="X79" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AO79">
         <v>8.75</v>
@@ -12751,52 +12758,52 @@
         <v>33</v>
       </c>
       <c r="B80" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C80" t="s">
         <v>1013</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1014</v>
       </c>
       <c r="D80" t="s">
         <v>54</v>
       </c>
       <c r="E80" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F80" t="s">
         <v>1015</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>1016</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1017</v>
       </c>
       <c r="H80" t="s">
         <v>72</v>
       </c>
       <c r="I80" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J80" t="s">
         <v>214</v>
       </c>
       <c r="K80" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L80" t="s">
         <v>76</v>
       </c>
       <c r="M80" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N80" t="s">
         <v>1020</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>1021</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1022</v>
       </c>
       <c r="P80">
         <v>299</v>
       </c>
       <c r="Q80" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="R80">
         <v>32</v>
@@ -12814,7 +12821,7 @@
         <v>65</v>
       </c>
       <c r="W80" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="X80" t="s">
         <v>233</v>
@@ -12873,49 +12880,49 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C81" t="s">
         <v>1024</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1025</v>
       </c>
       <c r="D81" t="s">
         <v>54</v>
       </c>
       <c r="E81" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F81" t="s">
         <v>1026</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>1027</v>
-      </c>
-      <c r="G81" t="s">
-        <v>1028</v>
       </c>
       <c r="H81" t="s">
         <v>72</v>
       </c>
       <c r="I81" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J81" t="s">
         <v>214</v>
       </c>
       <c r="K81" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L81" t="s">
         <v>92</v>
       </c>
       <c r="N81" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O81" t="s">
         <v>1031</v>
-      </c>
-      <c r="O81" t="s">
-        <v>1032</v>
       </c>
       <c r="P81">
         <v>5300</v>
       </c>
       <c r="Q81" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R81">
         <v>20</v>
@@ -12930,10 +12937,10 @@
         <v>65</v>
       </c>
       <c r="W81" t="s">
+        <v>1033</v>
+      </c>
+      <c r="X81" t="s">
         <v>1034</v>
-      </c>
-      <c r="X81" t="s">
-        <v>1035</v>
       </c>
       <c r="Y81">
         <v>88</v>
